--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -362,8 +362,8 @@
   <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I111" sqref="I111"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="C92" s="9">
-        <v>77</v>
+        <v>777</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -359,11 +359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,6 +1724,28 @@
         <v>777</v>
       </c>
     </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>44745</v>
+      </c>
+      <c r="B124" s="9">
+        <v>30</v>
+      </c>
+      <c r="C124" s="9">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>44746</v>
+      </c>
+      <c r="B125" s="9">
+        <v>30</v>
+      </c>
+      <c r="C125" s="9">
+        <v>775</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -359,11 +359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,6 +1746,17 @@
         <v>775</v>
       </c>
     </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>44747</v>
+      </c>
+      <c r="B126">
+        <v>30</v>
+      </c>
+      <c r="C126">
+        <v>785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -68,16 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -359,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,1377 +377,2059 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44623</v>
+        <v>44562</v>
       </c>
       <c r="B2" s="2">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>721</v>
+        <v>28</v>
+      </c>
+      <c r="C2" s="2">
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44624</v>
+        <v>44563</v>
       </c>
       <c r="B3" s="2">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>723</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B4" s="2">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B5" s="2">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B6" s="2">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B7" s="2">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B8" s="2">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B9" s="2">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B10" s="2">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B11" s="2">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B12" s="2">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B13" s="2">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B14" s="2">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B15" s="2">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B16" s="2">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B17" s="2">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B18" s="2">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B19" s="2">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B20" s="2">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B21" s="2">
+        <v>108</v>
+      </c>
+      <c r="C21" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B22" s="2">
+        <v>108</v>
+      </c>
+      <c r="C22" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B23" s="2">
+        <v>108</v>
+      </c>
+      <c r="C23" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B24" s="2">
+        <v>121</v>
+      </c>
+      <c r="C24" s="2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B25" s="2">
+        <v>121</v>
+      </c>
+      <c r="C25" s="2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B26" s="2">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B27" s="2">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B28" s="2">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B29" s="2">
+        <v>108</v>
+      </c>
+      <c r="C29" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B30" s="2">
+        <v>107</v>
+      </c>
+      <c r="C30" s="2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B31" s="2">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B32" s="2">
+        <v>107</v>
+      </c>
+      <c r="C32" s="2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B33" s="2">
+        <v>111</v>
+      </c>
+      <c r="C33" s="2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B34" s="2">
+        <v>108</v>
+      </c>
+      <c r="C34" s="2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B35" s="2">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B36" s="2">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B37" s="2">
+        <v>98</v>
+      </c>
+      <c r="C37" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B38" s="2">
+        <v>98</v>
+      </c>
+      <c r="C38" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B39" s="2">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B40" s="2">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B41" s="2">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B42" s="2">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B43" s="2">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B44" s="2">
+        <v>76</v>
+      </c>
+      <c r="C44" s="2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B45" s="2">
+        <v>76</v>
+      </c>
+      <c r="C45" s="2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B46" s="2">
+        <v>60</v>
+      </c>
+      <c r="C46" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B47" s="2">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B50" s="2">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B51" s="2">
+        <v>41</v>
+      </c>
+      <c r="C51" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B52" s="2">
+        <v>41</v>
+      </c>
+      <c r="C52" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B53" s="2">
+        <v>43</v>
+      </c>
+      <c r="C53" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B54" s="2">
+        <v>43</v>
+      </c>
+      <c r="C54" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43</v>
+      </c>
+      <c r="C55" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B56" s="2">
+        <v>43</v>
+      </c>
+      <c r="C56" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B57" s="2">
+        <v>34</v>
+      </c>
+      <c r="C57" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B58" s="2">
+        <v>34</v>
+      </c>
+      <c r="C58" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B59" s="2">
+        <v>34</v>
+      </c>
+      <c r="C59" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B60" s="2">
+        <v>34</v>
+      </c>
+      <c r="C60" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B61" s="2">
+        <v>30</v>
+      </c>
+      <c r="C61" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B62" s="2">
+        <v>30</v>
+      </c>
+      <c r="C62" s="2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B63" s="2">
+        <v>22</v>
+      </c>
+      <c r="C63" s="2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B64" s="2">
+        <v>31</v>
+      </c>
+      <c r="C64" s="2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>44625</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B65" s="2">
         <v>31</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C65" s="2">
         <v>723</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>44626</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B66" s="2">
         <v>31</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C66" s="2">
         <v>723</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>44627</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B67" s="2">
         <v>22</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C67" s="2">
         <v>721</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>44628</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B68" s="2">
         <v>22</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C68" s="2">
         <v>735</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>44629</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B69" s="2">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C69" s="2">
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>44630</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B70" s="2">
         <v>19</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C70" s="2">
         <v>737</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>44631</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B71" s="2">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C71" s="2">
         <v>732</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>44632</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B72" s="2">
         <v>15</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C72" s="2">
         <v>732</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>44633</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B73" s="2">
         <v>15</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C73" s="2">
         <v>732</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>44634</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B74" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C74" s="2">
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>44635</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B75" s="2">
         <v>20</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C75" s="2">
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>44636</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B76" s="2">
         <v>21</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C76" s="2">
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>44637</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B77" s="2">
         <v>20</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C77" s="2">
         <v>746</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>44638</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B78" s="2">
         <v>19</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C78" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>44639</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B79" s="2">
         <v>19</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C79" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>44640</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B80" s="2">
         <v>19</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C80" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>44641</v>
       </c>
-      <c r="B20">
+      <c r="B81" s="2">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C81" s="2">
         <v>743</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>44642</v>
       </c>
-      <c r="B21">
+      <c r="B82" s="2">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C82" s="2">
         <v>747</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>44643</v>
       </c>
-      <c r="B22">
+      <c r="B83" s="2">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="C83" s="2">
         <v>777</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>44644</v>
       </c>
-      <c r="B23">
+      <c r="B84" s="2">
         <v>19</v>
       </c>
-      <c r="C23">
+      <c r="C84" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>44645</v>
       </c>
-      <c r="B24">
+      <c r="B85" s="2">
         <v>21</v>
       </c>
-      <c r="C24">
+      <c r="C85" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>44646</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B86" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C86" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>44647</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B87" s="2">
         <v>21</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C87" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>44648</v>
       </c>
-      <c r="B27">
+      <c r="B88" s="2">
         <v>20</v>
       </c>
-      <c r="C27">
+      <c r="C88" s="2">
         <v>732</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>44649</v>
       </c>
-      <c r="B28">
+      <c r="B89" s="2">
         <v>23</v>
       </c>
-      <c r="C28">
+      <c r="C89" s="2">
         <v>719</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>44650</v>
       </c>
-      <c r="B29">
+      <c r="B90" s="2">
         <v>20</v>
       </c>
-      <c r="C29">
+      <c r="C90" s="2">
         <v>742</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>44651</v>
       </c>
-      <c r="B30">
+      <c r="B91" s="2">
         <v>21</v>
       </c>
-      <c r="C30">
+      <c r="C91" s="2">
         <v>749</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>44652</v>
       </c>
-      <c r="B31">
+      <c r="B92" s="2">
         <v>21</v>
       </c>
-      <c r="C31">
+      <c r="C92" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>44653</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B93" s="2">
         <v>21</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C93" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>44654</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B94" s="2">
         <v>21</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C94" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>44655</v>
       </c>
-      <c r="B34">
+      <c r="B95" s="2">
         <v>21</v>
       </c>
-      <c r="C34">
+      <c r="C95" s="2">
         <v>715</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>44656</v>
       </c>
-      <c r="B35">
+      <c r="B96" s="2">
         <v>21</v>
       </c>
-      <c r="C35">
+      <c r="C96" s="2">
         <v>713</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>44657</v>
       </c>
-      <c r="B36">
+      <c r="B97" s="2">
         <v>18</v>
       </c>
-      <c r="C36">
+      <c r="C97" s="2">
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>44658</v>
       </c>
-      <c r="B37">
+      <c r="B98" s="2">
         <v>16</v>
       </c>
-      <c r="C37">
+      <c r="C98" s="2">
         <v>724</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>44659</v>
       </c>
-      <c r="B38">
+      <c r="B99" s="2">
         <v>12</v>
       </c>
-      <c r="C38">
+      <c r="C99" s="2">
         <v>746</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>44660</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B100" s="2">
         <v>12</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C100" s="2">
         <v>746</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>44661</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B101" s="2">
         <v>12</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C101" s="2">
         <v>746</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>44662</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B102" s="2">
         <v>14</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C102" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>44663</v>
       </c>
-      <c r="B42">
+      <c r="B103" s="2">
         <v>14</v>
       </c>
-      <c r="C42">
+      <c r="C103" s="2">
         <v>777</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>44664</v>
       </c>
-      <c r="B43">
+      <c r="B104" s="2">
         <v>19</v>
       </c>
-      <c r="C43">
+      <c r="C104" s="2">
         <v>779</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>44665</v>
       </c>
-      <c r="B44">
+      <c r="B105" s="2">
         <v>19</v>
       </c>
-      <c r="C44">
+      <c r="C105" s="2">
         <v>803</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>44666</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B106" s="2">
         <v>19</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C106" s="2">
         <v>803</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>44667</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B107" s="2">
         <v>19</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C107" s="2">
         <v>803</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>44668</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B108" s="2">
         <v>19</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C108" s="2">
         <v>803</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>44669</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B109" s="2">
         <v>19</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C109" s="2">
         <v>673</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>44670</v>
       </c>
-      <c r="B49">
+      <c r="B110" s="2">
         <v>22</v>
       </c>
-      <c r="C49">
+      <c r="C110" s="2">
         <v>729</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>44671</v>
       </c>
-      <c r="B50">
+      <c r="B111" s="2">
         <v>22</v>
       </c>
-      <c r="C50">
+      <c r="C111" s="2">
         <v>744</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>44672</v>
       </c>
-      <c r="B51">
+      <c r="B112" s="2">
         <v>19</v>
       </c>
-      <c r="C51">
+      <c r="C112" s="2">
         <v>760</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>44673</v>
       </c>
-      <c r="B52">
+      <c r="B113" s="2">
         <v>16</v>
       </c>
-      <c r="C52">
+      <c r="C113" s="2">
         <v>770</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>44674</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B114" s="2">
         <v>16</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C114" s="2">
         <v>770</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>44675</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B115" s="2">
         <v>16</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C115" s="2">
         <v>770</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>44676</v>
       </c>
-      <c r="B55">
+      <c r="B116" s="2">
         <v>16</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C116" s="2">
         <v>746</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>44677</v>
       </c>
-      <c r="B56">
+      <c r="B117" s="2">
         <v>15</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C117" s="2">
         <v>741</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>44678</v>
       </c>
-      <c r="B57">
+      <c r="B118" s="2">
         <v>16</v>
       </c>
-      <c r="C57">
+      <c r="C118" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>44679</v>
       </c>
-      <c r="B58">
+      <c r="B119" s="2">
         <v>16</v>
       </c>
-      <c r="C58">
+      <c r="C119" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>44680</v>
       </c>
-      <c r="B59">
+      <c r="B120" s="2">
         <v>14</v>
       </c>
-      <c r="C59">
+      <c r="C120" s="2">
         <v>757</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>44681</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B121" s="2">
         <v>14</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C121" s="2">
         <v>757</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>44682</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B122" s="2">
         <v>14</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C122" s="2">
         <v>757</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>44683</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B123" s="2">
         <v>12</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C123" s="2">
         <v>720</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>44684</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B124" s="2">
         <v>12</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C124" s="2">
         <v>730</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>44685</v>
       </c>
-      <c r="B64">
+      <c r="B125" s="2">
         <v>12</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C125" s="2">
         <v>746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>44686</v>
       </c>
-      <c r="B65">
+      <c r="B126" s="2">
         <v>12</v>
       </c>
-      <c r="C65">
+      <c r="C126" s="2">
         <v>765</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>44687</v>
       </c>
-      <c r="B66">
+      <c r="B127" s="2">
         <v>13</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C127" s="2">
         <v>760</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>44688</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B128" s="2">
         <v>13</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C128" s="2">
         <v>760</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>44689</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B129" s="2">
         <v>13</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C129" s="2">
         <v>760</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>44690</v>
       </c>
-      <c r="B69">
+      <c r="B130" s="2">
         <v>13</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C130" s="2">
         <v>680</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>44691</v>
       </c>
-      <c r="B70">
+      <c r="B131" s="2">
         <v>11</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C131" s="2">
         <v>727</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>44692</v>
       </c>
-      <c r="B71">
+      <c r="B132" s="2">
         <v>11</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C132" s="2">
         <v>727</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>44693</v>
       </c>
-      <c r="B72">
+      <c r="B133" s="2">
         <v>11</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C133" s="2">
         <v>747</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>44694</v>
       </c>
-      <c r="B73">
+      <c r="B134" s="2">
         <v>8</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C134" s="2">
         <v>785</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>44695</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B135" s="2">
         <v>8</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C135" s="2">
         <v>785</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>44696</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B136" s="2">
         <v>8</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C136" s="2">
         <v>785</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>44697</v>
       </c>
-      <c r="B76">
+      <c r="B137" s="2">
         <v>7</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C137" s="2">
         <v>804</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>44698</v>
       </c>
-      <c r="B77">
+      <c r="B138" s="2">
         <v>14</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C138" s="2">
         <v>781</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>44699</v>
       </c>
-      <c r="B78">
+      <c r="B139" s="2">
         <v>14</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C139" s="2">
         <v>794</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>44700</v>
       </c>
-      <c r="B79">
+      <c r="B140" s="2">
         <v>15</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C140" s="2">
         <v>802</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>44701</v>
       </c>
-      <c r="B80">
+      <c r="B141" s="2">
         <v>12</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C141" s="2">
         <v>798</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>44702</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B142" s="2">
         <v>12</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C142" s="2">
         <v>798</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>44703</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B143" s="2">
         <v>12</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C143" s="2">
         <v>798</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>44704</v>
       </c>
-      <c r="B83">
+      <c r="B144" s="2">
         <v>12</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C144" s="2">
         <v>770</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>44705</v>
       </c>
-      <c r="B84">
+      <c r="B145" s="2">
         <v>11</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C145" s="2">
         <v>772</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>44706</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B146" s="2">
         <v>11</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C146" s="2">
         <v>772</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>44707</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B147" s="2">
         <v>11</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C147" s="2">
         <v>772</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>44708</v>
       </c>
-      <c r="B87">
+      <c r="B148" s="2">
         <v>13</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C148" s="2">
         <v>793</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>44709</v>
       </c>
-      <c r="B88">
+      <c r="B149" s="2">
         <v>13</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C149" s="2">
         <v>793</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>44710</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B150" s="2">
         <v>13</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C150" s="2">
         <v>793</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>44711</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B151" s="2">
         <v>13</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C151" s="2">
         <v>770</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>44712</v>
       </c>
-      <c r="B91">
+      <c r="B152" s="2">
         <v>12</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C152" s="2">
         <v>779</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>44713</v>
       </c>
-      <c r="B92">
+      <c r="B153" s="2">
         <v>12</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C153" s="2">
         <v>777</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>44714</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B154" s="2">
         <v>10</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C154" s="2">
         <v>788</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>44715</v>
       </c>
-      <c r="B94">
+      <c r="B155" s="2">
         <v>10</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C155" s="2">
         <v>781</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>44716</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B156" s="2">
         <v>10</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C156" s="2">
         <v>781</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>44717</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B157" s="2">
         <v>10</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C157" s="2">
         <v>781</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>44718</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B158" s="2">
         <v>11</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C158" s="2">
         <v>733</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>44719</v>
       </c>
-      <c r="B98">
+      <c r="B159" s="2">
         <v>12</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C159" s="2">
         <v>722</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>44720</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B160" s="2">
         <v>13</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C160" s="2">
         <v>717</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>44721</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B161" s="2">
         <v>15</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C161" s="2">
         <v>731</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>44722</v>
       </c>
-      <c r="B101">
+      <c r="B162" s="2">
         <v>14</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C162" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>44723</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B163" s="2">
         <v>14</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C163" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>44724</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B164" s="2">
         <v>14</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C164" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>44725</v>
       </c>
-      <c r="B104">
+      <c r="B165" s="2">
         <v>11</v>
       </c>
-      <c r="C104">
+      <c r="C165" s="2">
         <v>723</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>44726</v>
       </c>
-      <c r="B105">
+      <c r="B166" s="2">
         <v>11</v>
       </c>
-      <c r="C105">
+      <c r="C166" s="2">
         <v>697</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>44727</v>
       </c>
-      <c r="B106">
+      <c r="B167" s="2">
         <v>11</v>
       </c>
-      <c r="C106">
+      <c r="C167" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>44728</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B168" s="2">
         <v>11</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C168" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>44729</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B169" s="2">
         <v>10</v>
       </c>
-      <c r="C108">
+      <c r="C169" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>44730</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B170" s="2">
         <v>10</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C170" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>44731</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B171" s="2">
         <v>10</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C171" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>44732</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B172" s="2">
         <v>15</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C172" s="2">
         <v>736</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>44733</v>
       </c>
-      <c r="B112">
+      <c r="B173" s="2">
         <v>15</v>
       </c>
-      <c r="C112">
+      <c r="C173" s="2">
         <v>736</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="6">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>44734</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B174" s="2">
         <v>16</v>
       </c>
-      <c r="C113">
+      <c r="C174" s="2">
         <v>739</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>44735</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B175" s="2">
         <v>18</v>
       </c>
-      <c r="C114">
+      <c r="C175" s="2">
         <v>769</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="6">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>44736</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B176" s="2">
         <v>18</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C176" s="2">
         <v>769</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>44737</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B177" s="2">
         <v>18</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C177" s="2">
         <v>769</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="6">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>44738</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B178" s="2">
         <v>18</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C178" s="2">
         <v>769</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>44739</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B179" s="2">
         <v>22</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C179" s="2">
         <v>766</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>44740</v>
       </c>
-      <c r="B119">
+      <c r="B180" s="2">
         <v>19</v>
       </c>
-      <c r="C119">
+      <c r="C180" s="2">
         <v>787</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>44741</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B181" s="2">
         <v>19</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C181" s="2">
         <v>787</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>44742</v>
       </c>
-      <c r="B121">
+      <c r="B182" s="2">
         <v>28</v>
       </c>
-      <c r="C121">
+      <c r="C182" s="2">
         <v>785</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>44743</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B183" s="2">
         <v>27</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C183" s="2">
         <v>777</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>44744</v>
       </c>
-      <c r="B123">
+      <c r="B184" s="2">
         <v>27</v>
       </c>
-      <c r="C123">
+      <c r="C184" s="2">
         <v>777</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>44745</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B185" s="2">
         <v>30</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C185" s="2">
         <v>775</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>44746</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B186" s="2">
         <v>30</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C186" s="2">
         <v>775</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>44747</v>
       </c>
-      <c r="B126">
+      <c r="B187" s="2">
         <v>30</v>
       </c>
-      <c r="C126">
+      <c r="C187" s="2">
         <v>785</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B188" s="2">
+        <v>26</v>
+      </c>
+      <c r="C188" s="2">
+        <v>783</v>
       </c>
     </row>
   </sheetData>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,6 +2432,17 @@
         <v>783</v>
       </c>
     </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44749</v>
+      </c>
+      <c r="B189" s="2">
+        <v>30</v>
+      </c>
+      <c r="C189" s="2">
+        <v>779</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,6 +2443,17 @@
         <v>779</v>
       </c>
     </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B190" s="2">
+        <v>33</v>
+      </c>
+      <c r="C190" s="2">
+        <v>783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,6 +2454,39 @@
         <v>783</v>
       </c>
     </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44751</v>
+      </c>
+      <c r="B191" s="2">
+        <v>33</v>
+      </c>
+      <c r="C191" s="2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B192" s="2">
+        <v>39</v>
+      </c>
+      <c r="C192" s="2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44753</v>
+      </c>
+      <c r="B193" s="2">
+        <v>39</v>
+      </c>
+      <c r="C193" s="2">
+        <v>782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,6 +2487,17 @@
         <v>782</v>
       </c>
     </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44754</v>
+      </c>
+      <c r="B194" s="2">
+        <v>40</v>
+      </c>
+      <c r="C194" s="2">
+        <v>762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
+      <selection pane="bottomLeft" activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,6 +2498,17 @@
         <v>762</v>
       </c>
     </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44755</v>
+      </c>
+      <c r="B195">
+        <v>40</v>
+      </c>
+      <c r="C195">
+        <v>762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D195" sqref="D195"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,6 +2509,17 @@
         <v>762</v>
       </c>
     </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B196">
+        <v>46</v>
+      </c>
+      <c r="C196">
+        <v>774</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
+      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,6 +2520,28 @@
         <v>774</v>
       </c>
     </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>44757</v>
+      </c>
+      <c r="B197">
+        <v>45</v>
+      </c>
+      <c r="C197">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>44758</v>
+      </c>
+      <c r="B198">
+        <v>45</v>
+      </c>
+      <c r="C198">
+        <v>791</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
+      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,6 +2542,28 @@
         <v>791</v>
       </c>
     </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>44759</v>
+      </c>
+      <c r="B199">
+        <v>41</v>
+      </c>
+      <c r="C199">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B200">
+        <v>41</v>
+      </c>
+      <c r="C200">
+        <v>766</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
+      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,6 +2564,28 @@
         <v>766</v>
       </c>
     </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>44761</v>
+      </c>
+      <c r="B201">
+        <v>36</v>
+      </c>
+      <c r="C201">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B202">
+        <v>49</v>
+      </c>
+      <c r="C202">
+        <v>764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G200" sqref="G200"/>
+      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,6 +2586,17 @@
         <v>764</v>
       </c>
     </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>44763</v>
+      </c>
+      <c r="B203">
+        <v>50</v>
+      </c>
+      <c r="C203">
+        <v>743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
+      <selection pane="bottomLeft" activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,6 +2597,50 @@
         <v>743</v>
       </c>
     </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B204" s="2">
+        <v>47</v>
+      </c>
+      <c r="C204" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>44765</v>
+      </c>
+      <c r="B205" s="2">
+        <v>47</v>
+      </c>
+      <c r="C205" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>44766</v>
+      </c>
+      <c r="B206" s="2">
+        <v>43</v>
+      </c>
+      <c r="C206" s="2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B207" s="2">
+        <v>43</v>
+      </c>
+      <c r="C207" s="2">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -352,11 +353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F203" sqref="F203"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,6 +2642,17 @@
         <v>761</v>
       </c>
     </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B208">
+        <v>51</v>
+      </c>
+      <c r="C208">
+        <v>764</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -353,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H200" sqref="H200"/>
+      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,6 +2652,17 @@
         <v>764</v>
       </c>
     </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B209" s="2">
+        <v>38</v>
+      </c>
+      <c r="C209" s="2">
+        <v>771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
@@ -2663,6 +2663,61 @@
         <v>771</v>
       </c>
     </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B210" s="2">
+        <v>38</v>
+      </c>
+      <c r="C210" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B211" s="2">
+        <v>38</v>
+      </c>
+      <c r="C211" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>44772</v>
+      </c>
+      <c r="B212" s="2">
+        <v>38</v>
+      </c>
+      <c r="C212" s="2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B213">
+        <v>39</v>
+      </c>
+      <c r="C213">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B214">
+        <v>39</v>
+      </c>
+      <c r="C214">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G211" sqref="G211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,6 +2718,17 @@
         <v>712</v>
       </c>
     </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B215">
+        <v>45</v>
+      </c>
+      <c r="C215">
+        <v>715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G211" sqref="G211"/>
+      <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,6 +2729,28 @@
         <v>715</v>
       </c>
     </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B216">
+        <v>43</v>
+      </c>
+      <c r="C216">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B217">
+        <v>42</v>
+      </c>
+      <c r="C217">
+        <v>727</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L216" sqref="L216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,6 +2751,50 @@
         <v>727</v>
       </c>
     </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B218">
+        <v>42</v>
+      </c>
+      <c r="C218">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>44779</v>
+      </c>
+      <c r="B219">
+        <v>42</v>
+      </c>
+      <c r="C219">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B220">
+        <v>41</v>
+      </c>
+      <c r="C220">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B221">
+        <v>41</v>
+      </c>
+      <c r="C221">
+        <v>721</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L216" sqref="L216"/>
+      <selection pane="bottomLeft" activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,6 +2795,17 @@
         <v>721</v>
       </c>
     </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B222">
+        <v>40</v>
+      </c>
+      <c r="C222">
+        <v>723</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F217" sqref="F217"/>
+      <selection pane="bottomLeft" activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,6 +2806,17 @@
         <v>723</v>
       </c>
     </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B223">
+        <v>33</v>
+      </c>
+      <c r="C223">
+        <v>731</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I211" sqref="I211"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F218" sqref="F218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,6 +2817,17 @@
         <v>731</v>
       </c>
     </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B224">
+        <v>33</v>
+      </c>
+      <c r="C224">
+        <v>747</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F218" sqref="F218"/>
+      <selection pane="bottomLeft" activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2828,6 +2828,61 @@
         <v>747</v>
       </c>
     </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B225">
+        <v>34</v>
+      </c>
+      <c r="C225">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>44786</v>
+      </c>
+      <c r="B226">
+        <v>34</v>
+      </c>
+      <c r="C226">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>44787</v>
+      </c>
+      <c r="B227">
+        <v>36</v>
+      </c>
+      <c r="C227">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B228">
+        <v>36</v>
+      </c>
+      <c r="C228">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B229">
+        <v>35</v>
+      </c>
+      <c r="C229">
+        <v>740</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H222" sqref="H222"/>
+      <selection pane="bottomLeft" activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,6 +2883,17 @@
         <v>740</v>
       </c>
     </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B230">
+        <v>35</v>
+      </c>
+      <c r="C230">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G223" sqref="G223"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H223" sqref="H223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,6 +2894,17 @@
         <v>761</v>
       </c>
     </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B231">
+        <v>41</v>
+      </c>
+      <c r="C231">
+        <v>769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H223" sqref="H223"/>
+      <selection pane="bottomLeft" activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,6 +2905,50 @@
         <v>769</v>
       </c>
     </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B232">
+        <v>36</v>
+      </c>
+      <c r="C232">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>44793</v>
+      </c>
+      <c r="B233">
+        <v>36</v>
+      </c>
+      <c r="C233">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>44794</v>
+      </c>
+      <c r="B234">
+        <v>36</v>
+      </c>
+      <c r="C234">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B235">
+        <v>36</v>
+      </c>
+      <c r="C235">
+        <v>749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C235"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G224" sqref="G224"/>
+      <selection pane="bottomLeft" activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,6 +2949,17 @@
         <v>749</v>
       </c>
     </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B236">
+        <v>31</v>
+      </c>
+      <c r="C236">
+        <v>727</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H227" sqref="H227"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H230" sqref="H230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,6 +2960,17 @@
         <v>727</v>
       </c>
     </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B237">
+        <v>31</v>
+      </c>
+      <c r="C237">
+        <v>738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H230" sqref="H230"/>
+      <selection pane="bottomLeft" activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,6 +2971,17 @@
         <v>738</v>
       </c>
     </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B238">
+        <v>32</v>
+      </c>
+      <c r="C238">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C238"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F238" sqref="F238"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,6 +2982,72 @@
         <v>750</v>
       </c>
     </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B239">
+        <v>32</v>
+      </c>
+      <c r="C239">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>44800</v>
+      </c>
+      <c r="B240">
+        <v>32</v>
+      </c>
+      <c r="C240">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>44801</v>
+      </c>
+      <c r="B241">
+        <v>30</v>
+      </c>
+      <c r="C241">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B242">
+        <v>30</v>
+      </c>
+      <c r="C242">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B243">
+        <v>30</v>
+      </c>
+      <c r="C243">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B244">
+        <v>30</v>
+      </c>
+      <c r="C244">
+        <v>704</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C241" sqref="C241"/>
+      <selection pane="bottomLeft" activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,6 +3048,17 @@
         <v>704</v>
       </c>
     </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B245">
+        <v>30</v>
+      </c>
+      <c r="C245">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C241" sqref="C241"/>
+      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,6 +3048,28 @@
         <v>704</v>
       </c>
     </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B245">
+        <v>30</v>
+      </c>
+      <c r="C245">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B246">
+        <v>28</v>
+      </c>
+      <c r="C246">
+        <v>738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,6 +3070,39 @@
         <v>738</v>
       </c>
     </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>44807</v>
+      </c>
+      <c r="B247" s="2">
+        <v>28</v>
+      </c>
+      <c r="C247" s="2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>44808</v>
+      </c>
+      <c r="B248">
+        <v>31</v>
+      </c>
+      <c r="C248">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B249" s="2">
+        <v>31</v>
+      </c>
+      <c r="C249" s="2">
+        <v>743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -352,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F246" sqref="F246"/>
+      <selection pane="bottomLeft" activeCell="L246" sqref="L246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,6 +3103,39 @@
         <v>743</v>
       </c>
     </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B250">
+        <v>33</v>
+      </c>
+      <c r="C250">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B251">
+        <v>32</v>
+      </c>
+      <c r="C251">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B252">
+        <v>31</v>
+      </c>
+      <c r="C252">
+        <v>770</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EB09C-2F07-471E-A1E3-3B76EFED51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,12 +352,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C252"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L246" sqref="L246"/>
+      <selection pane="bottomLeft" activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,6 +3137,72 @@
         <v>770</v>
       </c>
     </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B253">
+        <v>31</v>
+      </c>
+      <c r="C253">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B254" s="2">
+        <v>31</v>
+      </c>
+      <c r="C254" s="2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>44815</v>
+      </c>
+      <c r="B255">
+        <v>30</v>
+      </c>
+      <c r="C255">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B256">
+        <v>30</v>
+      </c>
+      <c r="C256">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B257">
+        <v>30</v>
+      </c>
+      <c r="C257">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B258">
+        <v>28</v>
+      </c>
+      <c r="C258">
+        <v>818</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EB09C-2F07-471E-A1E3-3B76EFED51C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2BF964-F91F-4A59-9101-4324D132431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,11 +353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F259" sqref="F259"/>
+      <selection pane="bottomLeft" activeCell="H247" sqref="H247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,6 +3203,17 @@
         <v>818</v>
       </c>
     </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B259">
+        <v>29</v>
+      </c>
+      <c r="C259">
+        <v>820</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2BF964-F91F-4A59-9101-4324D132431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF53AE0-3510-4B80-AEF0-9175884474CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -353,11 +353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H247" sqref="H247"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,6 +3214,50 @@
         <v>820</v>
       </c>
     </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B260">
+        <v>28</v>
+      </c>
+      <c r="C260">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B261">
+        <v>28</v>
+      </c>
+      <c r="C261">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B262">
+        <v>27</v>
+      </c>
+      <c r="C262">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B263">
+        <v>27</v>
+      </c>
+      <c r="C263">
+        <v>783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF53AE0-3510-4B80-AEF0-9175884474CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74082E65-8803-4392-A7AE-82EAAA50E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,11 +353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,6 +3258,61 @@
         <v>783</v>
       </c>
     </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B264" s="2">
+        <v>27</v>
+      </c>
+      <c r="C264" s="2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B265">
+        <v>13</v>
+      </c>
+      <c r="C265">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B266">
+        <v>13</v>
+      </c>
+      <c r="C266">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B267">
+        <v>14</v>
+      </c>
+      <c r="C267">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>44828</v>
+      </c>
+      <c r="B268">
+        <v>14</v>
+      </c>
+      <c r="C268">
+        <v>827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74082E65-8803-4392-A7AE-82EAAA50E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9238A6-C404-4E2D-A39F-1B2B625D2EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,11 +353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H250" sqref="H250"/>
+      <selection pane="bottomLeft" activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,6 +3313,39 @@
         <v>827</v>
       </c>
     </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>44829</v>
+      </c>
+      <c r="B269">
+        <v>13</v>
+      </c>
+      <c r="C269">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B270">
+        <v>13</v>
+      </c>
+      <c r="C270">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B271">
+        <v>13</v>
+      </c>
+      <c r="C271">
+        <v>790</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9238A6-C404-4E2D-A39F-1B2B625D2EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A141F5F5-92FF-488D-ADEA-F3BA6EA03E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,11 +353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D270" sqref="D270"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D277" sqref="D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,6 +3346,72 @@
         <v>790</v>
       </c>
     </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B272">
+        <v>13</v>
+      </c>
+      <c r="C272" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B273" s="2">
+        <v>13</v>
+      </c>
+      <c r="C273" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B274" s="2">
+        <v>13</v>
+      </c>
+      <c r="C274" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B275" s="2">
+        <v>13</v>
+      </c>
+      <c r="C275" s="2">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>44836</v>
+      </c>
+      <c r="B276">
+        <v>9</v>
+      </c>
+      <c r="C276">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B277">
+        <v>9</v>
+      </c>
+      <c r="C277">
+        <v>796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A141F5F5-92FF-488D-ADEA-F3BA6EA03E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B45AB-2528-4ABB-8E08-81A4DB2349CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,11 +353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D277" sqref="D277"/>
+      <selection pane="bottomLeft" activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,6 +3412,94 @@
         <v>796</v>
       </c>
     </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B278">
+        <v>9</v>
+      </c>
+      <c r="C278">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B279">
+        <v>13</v>
+      </c>
+      <c r="C279">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B280">
+        <v>11</v>
+      </c>
+      <c r="C280">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B281">
+        <v>11</v>
+      </c>
+      <c r="C281" s="2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B282">
+        <v>11</v>
+      </c>
+      <c r="C282" s="2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B283">
+        <v>15</v>
+      </c>
+      <c r="C283">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B284">
+        <v>15</v>
+      </c>
+      <c r="C284">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B285">
+        <v>15</v>
+      </c>
+      <c r="C285">
+        <v>780</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B45AB-2528-4ABB-8E08-81A4DB2349CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5DD782-56D2-479B-923F-0C39737953DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,11 +353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C285" sqref="C285"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I276" sqref="I276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,6 +3500,50 @@
         <v>780</v>
       </c>
     </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B286">
+        <v>15</v>
+      </c>
+      <c r="C286">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B287">
+        <v>16</v>
+      </c>
+      <c r="C287">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B288">
+        <v>16</v>
+      </c>
+      <c r="C288">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B289">
+        <v>16</v>
+      </c>
+      <c r="C289">
+        <v>794</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
+++ b/data/source6_hospitalizados/input/hospitalizados_covid_nocovid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enemi\Documents\GitHub\GERESA_dashboard\data\source6_hospitalizados\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5DD782-56D2-479B-923F-0C39737953DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0B2ED5-8D19-4DF8-AB6A-B105823A2E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,11 +352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I276" sqref="I276"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I290" sqref="I290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,10 +379,10 @@
       <c r="A2" s="1">
         <v>44562</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>28</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>714</v>
       </c>
     </row>
@@ -391,10 +390,10 @@
       <c r="A3" s="1">
         <v>44563</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>28</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>714</v>
       </c>
     </row>
@@ -402,10 +401,10 @@
       <c r="A4" s="1">
         <v>44564</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>33</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>484</v>
       </c>
     </row>
@@ -413,10 +412,10 @@
       <c r="A5" s="1">
         <v>44565</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>35</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>656</v>
       </c>
     </row>
@@ -424,10 +423,10 @@
       <c r="A6" s="1">
         <v>44566</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>46</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>717</v>
       </c>
     </row>
@@ -435,10 +434,10 @@
       <c r="A7" s="1">
         <v>44567</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>55</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>748</v>
       </c>
     </row>
@@ -446,10 +445,10 @@
       <c r="A8" s="1">
         <v>44568</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>55</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>748</v>
       </c>
     </row>
@@ -457,10 +456,10 @@
       <c r="A9" s="1">
         <v>44569</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>55</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>748</v>
       </c>
     </row>
@@ -468,10 +467,10 @@
       <c r="A10" s="1">
         <v>44570</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>55</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>748</v>
       </c>
     </row>
@@ -479,10 +478,10 @@
       <c r="A11" s="1">
         <v>44571</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>64</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>735</v>
       </c>
     </row>
@@ -490,10 +489,10 @@
       <c r="A12" s="1">
         <v>44572</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>58</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>720</v>
       </c>
     </row>
@@ -501,10 +500,10 @@
       <c r="A13" s="1">
         <v>44573</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>60</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>739</v>
       </c>
     </row>
@@ -512,10 +511,10 @@
       <c r="A14" s="1">
         <v>44574</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>64</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>667</v>
       </c>
     </row>
@@ -523,10 +522,10 @@
       <c r="A15" s="1">
         <v>44575</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>64</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>667</v>
       </c>
     </row>
@@ -534,10 +533,10 @@
       <c r="A16" s="1">
         <v>44576</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>64</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>667</v>
       </c>
     </row>
@@ -545,10 +544,10 @@
       <c r="A17" s="1">
         <v>44577</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>64</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>667</v>
       </c>
     </row>
@@ -556,10 +555,10 @@
       <c r="A18" s="1">
         <v>44578</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>88</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>665</v>
       </c>
     </row>
@@ -567,10 +566,10 @@
       <c r="A19" s="1">
         <v>44579</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>88</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>665</v>
       </c>
     </row>
@@ -578,10 +577,10 @@
       <c r="A20" s="1">
         <v>44580</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>88</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>665</v>
       </c>
     </row>
@@ -589,10 +588,10 @@
       <c r="A21" s="1">
         <v>44581</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>108</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>700</v>
       </c>
     </row>
@@ -600,10 +599,10 @@
       <c r="A22" s="1">
         <v>44582</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>108</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>700</v>
       </c>
     </row>
@@ -611,10 +610,10 @@
       <c r="A23" s="1">
         <v>44583</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>108</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>700</v>
       </c>
     </row>
@@ -622,10 +621,10 @@
       <c r="A24" s="1">
         <v>44584</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>121</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>636</v>
       </c>
     </row>
@@ -633,10 +632,10 @@
       <c r="A25" s="1">
         <v>44585</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>121</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>636</v>
       </c>
     </row>
@@ -644,10 +643,10 @@
       <c r="A26" s="1">
         <v>44586</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>110</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>658</v>
       </c>
     </row>
@@ -655,10 +654,10 @@
       <c r="A27" s="1">
         <v>44587</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>114</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>634</v>
       </c>
     </row>
@@ -666,10 +665,10 @@
       <c r="A28" s="1">
         <v>44588</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>116</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>648</v>
       </c>
     </row>
@@ -677,10 +676,10 @@
       <c r="A29" s="1">
         <v>44589</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>108</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>645</v>
       </c>
     </row>
@@ -688,10 +687,10 @@
       <c r="A30" s="1">
         <v>44590</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>107</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>651</v>
       </c>
     </row>
@@ -699,10 +698,10 @@
       <c r="A31" s="1">
         <v>44591</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>107</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>651</v>
       </c>
     </row>
@@ -710,10 +709,10 @@
       <c r="A32" s="1">
         <v>44592</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>107</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>651</v>
       </c>
     </row>
@@ -721,10 +720,10 @@
       <c r="A33" s="1">
         <v>44593</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>111</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>638</v>
       </c>
     </row>
@@ -732,10 +731,10 @@
       <c r="A34" s="1">
         <v>44594</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>108</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>668</v>
       </c>
     </row>
@@ -743,10 +742,10 @@
       <c r="A35" s="1">
         <v>44595</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>94</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>645</v>
       </c>
     </row>
@@ -754,10 +753,10 @@
       <c r="A36" s="1">
         <v>44596</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>98</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>665</v>
       </c>
     </row>
@@ -765,10 +764,10 @@
       <c r="A37" s="1">
         <v>44597</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>98</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>665</v>
       </c>
     </row>
@@ -776,10 +775,10 @@
       <c r="A38" s="1">
         <v>44598</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>98</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>665</v>
       </c>
     </row>
@@ -787,10 +786,10 @@
       <c r="A39" s="1">
         <v>44599</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>89</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>676</v>
       </c>
     </row>
@@ -798,10 +797,10 @@
       <c r="A40" s="1">
         <v>44600</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>88</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>678</v>
       </c>
     </row>
@@ -809,10 +808,10 @@
       <c r="A41" s="1">
         <v>44601</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>83</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>575</v>
       </c>
     </row>
@@ -820,10 +819,10 @@
       <c r="A42" s="1">
         <v>44602</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>77</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>698</v>
       </c>
     </row>
@@ -831,10 +830,10 @@
       <c r="A43" s="1">
         <v>44603</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>76</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>705</v>
       </c>
     </row>
@@ -842,10 +841,10 @@
       <c r="A44" s="1">
         <v>44604</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>76</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>705</v>
       </c>
     </row>
@@ -853,10 +852,10 @@
       <c r="A45" s="1">
         <v>44605</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>76</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>705</v>
       </c>
     </row>
@@ -864,10 +863,10 @@
       <c r="A46" s="1">
         <v>44606</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>60</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>687</v>
       </c>
     </row>
@@ -875,10 +874,10 @@
       <c r="A47" s="1">
         <v>44607</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>47</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>701</v>
       </c>
     </row>
@@ -886,10 +885,10 @@
       <c r="A48" s="1">
         <v>44608</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>44</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>718</v>
       </c>
     </row>
@@ -897,10 +896,10 @@
       <c r="A49" s="1">
         <v>44609</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>42</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>715</v>
       </c>
     </row>
@@ -908,10 +907,10 @@
       <c r="A50" s="1">
         <v>44610</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>41</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>726</v>
       </c>
     </row>
@@ -919,10 +918,10 @@
       <c r="A51" s="1">
         <v>44611</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>41</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>726</v>
       </c>
     </row>
@@ -930,10 +929,10 @@
       <c r="A52" s="1">
         <v>44612</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>41</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>726</v>
       </c>
     </row>
@@ -941,10 +940,10 @@
       <c r="A53" s="1">
         <v>44613</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>43</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>749</v>
       </c>
     </row>
@@ -952,10 +951,10 @@
       <c r="A54" s="1">
         <v>44614</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>43</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>749</v>
       </c>
     </row>
@@ -963,10 +962,10 @@
       <c r="A55" s="1">
         <v>44615</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>43</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>749</v>
       </c>
     </row>
@@ -974,10 +973,10 @@
       <c r="A56" s="1">
         <v>44616</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>43</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>749</v>
       </c>
     </row>
@@ -985,10 +984,10 @@
       <c r="A57" s="1">
         <v>44617</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>34</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>649</v>
       </c>
     </row>
@@ -996,10 +995,10 @@
       <c r="A58" s="1">
         <v>44618</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>34</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>649</v>
       </c>
     </row>
@@ -1007,10 +1006,10 @@
       <c r="A59" s="1">
         <v>44619</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>34</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>649</v>
       </c>
     </row>
@@ -1018,10 +1017,10 @@
       <c r="A60" s="1">
         <v>44620</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>34</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>649</v>
       </c>
     </row>
@@ -1029,10 +1028,10 @@
       <c r="A61" s="1">
         <v>44621</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>30</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>749</v>
       </c>
     </row>
@@ -1040,10 +1039,10 @@
       <c r="A62" s="1">
         <v>44622</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>30</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>749</v>
       </c>
     </row>
@@ -1051,10 +1050,10 @@
       <c r="A63" s="1">
         <v>44623</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>22</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>721</v>
       </c>
     </row>
@@ -1062,10 +1061,10 @@
       <c r="A64" s="1">
         <v>44624</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>31</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>723</v>
       </c>
     </row>
@@ -1073,10 +1072,10 @@
       <c r="A65" s="1">
         <v>44625</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>31</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>723</v>
       </c>
     </row>
@@ -1084,10 +1083,10 @@
       <c r="A66" s="1">
         <v>44626</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>31</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>723</v>
       </c>
     </row>
@@ -1095,10 +1094,10 @@
       <c r="A67" s="1">
         <v>44627</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>22</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>721</v>
       </c>
     </row>
@@ -1106,10 +1105,10 @@
       <c r="A68" s="1">
         <v>44628</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>22</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>735</v>
       </c>
     </row>
@@ -1117,10 +1116,10 @@
       <c r="A69" s="1">
         <v>44629</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>17</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>731</v>
       </c>
     </row>
@@ -1128,10 +1127,10 @@
       <c r="A70" s="1">
         <v>44630</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>19</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>737</v>
       </c>
     </row>
@@ -1139,10 +1138,10 @@
       <c r="A71" s="1">
         <v>44631</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>15</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
         <v>732</v>
       </c>
     </row>
@@ -1150,10 +1149,10 @@
       <c r="A72" s="1">
         <v>44632</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>15</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>732</v>
       </c>
     </row>
@@ -1161,10 +1160,10 @@
       <c r="A73" s="1">
         <v>44633</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>15</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>732</v>
       </c>
     </row>
@@ -1172,10 +1171,10 @@
       <c r="A74" s="1">
         <v>44634</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>9</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>714</v>
       </c>
     </row>
@@ -1183,10 +1182,10 @@
       <c r="A75" s="1">
         <v>44635</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>20</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>725</v>
       </c>
     </row>
@@ -1194,10 +1193,10 @@
       <c r="A76" s="1">
         <v>44636</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>21</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>746</v>
       </c>
     </row>
@@ -1205,10 +1204,10 @@
       <c r="A77" s="1">
         <v>44637</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>20</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>746</v>
       </c>
     </row>
@@ -1216,10 +1215,10 @@
       <c r="A78" s="1">
         <v>44638</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>19</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>758</v>
       </c>
     </row>
@@ -1227,10 +1226,10 @@
       <c r="A79" s="1">
         <v>44639</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>19</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>758</v>
       </c>
     </row>
@@ -1238,10 +1237,10 @@
       <c r="A80" s="1">
         <v>44640</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>19</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>758</v>
       </c>
     </row>
@@ -1249,10 +1248,10 @@
       <c r="A81" s="1">
         <v>44641</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>18</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>743</v>
       </c>
     </row>
@@ -1260,10 +1259,10 @@
       <c r="A82" s="1">
         <v>44642</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>18</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>747</v>
       </c>
     </row>
@@ -1271,10 +1270,10 @@
       <c r="A83" s="1">
         <v>44643</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>19</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>777</v>
       </c>
     </row>
@@ -1282,10 +1281,10 @@
       <c r="A84" s="1">
         <v>44644</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>19</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>758</v>
       </c>
     </row>
@@ -1293,10 +1292,10 @@
       <c r="A85" s="1">
         <v>44645</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>21</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>758</v>
       </c>
     </row>
@@ -1304,10 +1303,10 @@
       <c r="A86" s="1">
         <v>44646</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>21</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>758</v>
       </c>
     </row>
@@ -1315,10 +1314,10 @@
       <c r="A87" s="1">
         <v>44647</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>21</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>758</v>
       </c>
     </row>
@@ -1326,10 +1325,10 @@
       <c r="A88" s="1">
         <v>44648</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>20</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88">
         <v>732</v>
       </c>
     </row>
@@ -1337,10 +1336,10 @@
       <c r="A89" s="1">
         <v>44649</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>23</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89">
         <v>719</v>
       </c>
     </row>
@@ -1348,10 +1347,10 @@
       <c r="A90" s="1">
         <v>44650</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>20</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90">
         <v>742</v>
       </c>
     </row>
@@ -1359,10 +1358,10 @@
       <c r="A91" s="1">
         <v>44651</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>21</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91">
         <v>749</v>
       </c>
     </row>
@@ -1370,10 +1369,10 @@
       <c r="A92" s="1">
         <v>44652</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>21</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92">
         <v>740</v>
       </c>
     </row>
@@ -1381,10 +1380,10 @@
       <c r="A93" s="1">
         <v>44653</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>21</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>740</v>
       </c>
     </row>
@@ -1392,10 +1391,10 @@
       <c r="A94" s="1">
         <v>44654</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>21</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94">
         <v>740</v>
       </c>
     </row>
@@ -1403,10 +1402,10 @@
       <c r="A95" s="1">
         <v>44655</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>21</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95">
         <v>715</v>
       </c>
     </row>
@@ -1414,10 +1413,10 @@
       <c r="A96" s="1">
         <v>44656</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>21</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96">
         <v>713</v>
       </c>
     </row>
@@ -1425,10 +1424,10 @@
       <c r="A97" s="1">
         <v>44657</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>18</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97">
         <v>712</v>
       </c>
     </row>
@@ -1436,10 +1435,10 @@
       <c r="A98" s="1">
         <v>44658</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>16</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98">
         <v>724</v>
       </c>
     </row>
@@ -1447,10 +1446,10 @@
       <c r="A99" s="1">
         <v>44659</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>12</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99">
         <v>746</v>
       </c>
     </row>
@@ -1458,10 +1457,10 @@
       <c r="A100" s="1">
         <v>44660</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>12</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100">
         <v>746</v>
       </c>
     </row>
@@ -1469,10 +1468,10 @@
       <c r="A101" s="1">
         <v>44661</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>12</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101">
         <v>746</v>
       </c>
     </row>
@@ -1480,10 +1479,10 @@
       <c r="A102" s="1">
         <v>44662</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>14</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102">
         <v>740</v>
       </c>
     </row>
@@ -1491,10 +1490,10 @@
       <c r="A103" s="1">
         <v>44663</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>14</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103">
         <v>777</v>
       </c>
     </row>
@@ -1502,10 +1501,10 @@
       <c r="A104" s="1">
         <v>44664</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>19</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104">
         <v>779</v>
       </c>
     </row>
@@ -1513,10 +1512,10 @@
       <c r="A105" s="1">
         <v>44665</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>19</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>803</v>
       </c>
     </row>
@@ -1524,10 +1523,10 @@
       <c r="A106" s="1">
         <v>44666</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>19</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106">
         <v>803</v>
       </c>
     </row>
@@ -1535,10 +1534,10 @@
       <c r="A107" s="1">
         <v>44667</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <v>19</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107">
         <v>803</v>
       </c>
     </row>
@@ -1546,10 +1545,10 @@
       <c r="A108" s="1">
         <v>44668</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <v>19</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108">
         <v>803</v>
       </c>
     </row>
@@ -1557,10 +1556,10 @@
       <c r="A109" s="1">
         <v>44669</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <v>19</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109">
         <v>673</v>
       </c>
     </row>
@@ -1568,10 +1567,10 @@
       <c r="A110" s="1">
         <v>44670</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <v>22</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110">
         <v>729</v>
       </c>
     </row>
@@ -1579,10 +1578,10 @@
       <c r="A111" s="1">
         <v>44671</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>22</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111">
         <v>744</v>
       </c>
     </row>
@@ -1590,10 +1589,10 @@
       <c r="A112" s="1">
         <v>44672</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>19</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>760</v>
       </c>
     </row>
@@ -1601,10 +1600,10 @@
       <c r="A113" s="1">
         <v>44673</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>16</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113">
         <v>770</v>
       </c>
     </row>
@@ -1612,10 +1611,10 @@
       <c r="A114" s="1">
         <v>44674</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>16</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114">
         <v>770</v>
       </c>
     </row>
@@ -1623,10 +1622,10 @@
       <c r="A115" s="1">
         <v>44675</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>16</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115">
         <v>770</v>
       </c>
     </row>
@@ -1634,10 +1633,10 @@
       <c r="A116" s="1">
         <v>44676</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>16</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116">
         <v>746</v>
       </c>
     </row>
@@ -1645,10 +1644,10 @@
       <c r="A117" s="1">
         <v>44677</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>15</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117">
         <v>741</v>
       </c>
     </row>
@@ -1656,10 +1655,10 @@
       <c r="A118" s="1">
         <v>44678</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>16</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118">
         <v>758</v>
       </c>
     </row>
@@ -1667,10 +1666,10 @@
       <c r="A119" s="1">
         <v>44679</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>16</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119">
         <v>758</v>
       </c>
     </row>
@@ -1678,10 +1677,10 @@
       <c r="A120" s="1">
         <v>44680</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>14</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120">
         <v>757</v>
       </c>
     </row>
@@ -1689,10 +1688,10 @@
       <c r="A121" s="1">
         <v>44681</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>14</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121">
         <v>757</v>
       </c>
     </row>
@@ -1700,10 +1699,10 @@
       <c r="A122" s="1">
         <v>44682</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>14</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122">
         <v>757</v>
       </c>
     </row>
@@ -1711,10 +1710,10 @@
       <c r="A123" s="1">
         <v>44683</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>12</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123">
         <v>720</v>
       </c>
     </row>
@@ -1722,10 +1721,10 @@
       <c r="A124" s="1">
         <v>44684</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>12</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124">
         <v>730</v>
       </c>
     </row>
@@ -1733,10 +1732,10 @@
       <c r="A125" s="1">
         <v>44685</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>12</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125">
         <v>746</v>
       </c>
     </row>
@@ -1744,10 +1743,10 @@
       <c r="A126" s="1">
         <v>44686</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>12</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126">
         <v>765</v>
       </c>
     </row>
@@ -1755,10 +1754,10 @@
       <c r="A127" s="1">
         <v>44687</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>13</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127">
         <v>760</v>
       </c>
     </row>
@@ -1766,10 +1765,10 @@
       <c r="A128" s="1">
         <v>44688</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>13</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128">
         <v>760</v>
       </c>
     </row>
@@ -1777,10 +1776,10 @@
       <c r="A129" s="1">
         <v>44689</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <v>13</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129">
         <v>760</v>
       </c>
     </row>
@@ -1788,10 +1787,10 @@
       <c r="A130" s="1">
         <v>44690</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>13</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130">
         <v>680</v>
       </c>
     </row>
@@ -1799,10 +1798,10 @@
       <c r="A131" s="1">
         <v>44691</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>11</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131">
         <v>727</v>
       </c>
     </row>
@@ -1810,10 +1809,10 @@
       <c r="A132" s="1">
         <v>44692</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>11</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132">
         <v>727</v>
       </c>
     </row>
@@ -1821,10 +1820,10 @@
       <c r="A133" s="1">
         <v>44693</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <v>11</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133">
         <v>747</v>
       </c>
     </row>
@@ -1832,10 +1831,10 @@
       <c r="A134" s="1">
         <v>44694</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <v>8</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134">
         <v>785</v>
       </c>
     </row>
@@ -1843,10 +1842,10 @@
       <c r="A135" s="1">
         <v>44695</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <v>8</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135">
         <v>785</v>
       </c>
     </row>
@@ -1854,10 +1853,10 @@
       <c r="A136" s="1">
         <v>44696</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <v>8</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136">
         <v>785</v>
       </c>
     </row>
@@ -1865,10 +1864,10 @@
       <c r="A137" s="1">
         <v>44697</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <v>7</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137">
         <v>804</v>
       </c>
     </row>
@@ -1876,10 +1875,10 @@
       <c r="A138" s="1">
         <v>44698</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <v>14</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138">
         <v>781</v>
       </c>
     </row>
@@ -1887,10 +1886,10 @@
       <c r="A139" s="1">
         <v>44699</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <v>14</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139">
         <v>794</v>
       </c>
     </row>
@@ -1898,10 +1897,10 @@
       <c r="A140" s="1">
         <v>44700</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <v>15</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140">
         <v>802</v>
       </c>
     </row>
@@ -1909,10 +1908,10 @@
       <c r="A141" s="1">
         <v>44701</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <v>12</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141">
         <v>798</v>
       </c>
     </row>
@@ -1920,10 +1919,10 @@
       <c r="A142" s="1">
         <v>44702</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <v>12</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142">
         <v>798</v>
       </c>
     </row>
@@ -1931,10 +1930,10 @@
       <c r="A143" s="1">
         <v>44703</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
         <v>12</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143">
         <v>798</v>
       </c>
     </row>
@@ -1942,10 +1941,10 @@
       <c r="A144" s="1">
         <v>44704</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <v>12</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144">
         <v>770</v>
       </c>
     </row>
@@ -1953,10 +1952,10 @@
       <c r="A145" s="1">
         <v>44705</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
         <v>11</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145">
         <v>772</v>
       </c>
     </row>
@@ -1964,10 +1963,10 @@
       <c r="A146" s="1">
         <v>44706</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <v>11</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146">
         <v>772</v>
       </c>
     </row>
@@ -1975,10 +1974,10 @@
       <c r="A147" s="1">
         <v>44707</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
         <v>11</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147">
         <v>772</v>
       </c>
     </row>
@@ -1986,10 +1985,10 @@
       <c r="A148" s="1">
         <v>44708</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
         <v>13</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148">
         <v>793</v>
       </c>
     </row>
@@ -1997,10 +1996,10 @@
       <c r="A149" s="1">
         <v>44709</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
         <v>13</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149">
         <v>793</v>
       </c>
     </row>
@@ -2008,10 +2007,10 @@
       <c r="A150" s="1">
         <v>44710</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
         <v>13</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150">
         <v>793</v>
       </c>
     </row>
@@ -2019,10 +2018,10 @@
       <c r="A151" s="1">
         <v>44711</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151">
         <v>13</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151">
         <v>770</v>
       </c>
     </row>
@@ -2030,10 +2029,10 @@
       <c r="A152" s="1">
         <v>44712</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152">
         <v>12</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152">
         <v>779</v>
       </c>
     </row>
@@ -2041,10 +2040,10 @@
       <c r="A153" s="1">
         <v>44713</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153">
         <v>12</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153">
         <v>777</v>
       </c>
     </row>
@@ -2052,10 +2051,10 @@
       <c r="A154" s="1">
         <v>44714</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154">
         <v>10</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154">
         <v>788</v>
       </c>
     </row>
@@ -2063,10 +2062,10 @@
       <c r="A155" s="1">
         <v>44715</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155">
         <v>10</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155">
         <v>781</v>
       </c>
     </row>
@@ -2074,10 +2073,10 @@
       <c r="A156" s="1">
         <v>44716</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156">
         <v>10</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156">
         <v>781</v>
       </c>
     </row>
@@ -2085,10 +2084,10 @@
       <c r="A157" s="1">
         <v>44717</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157">
         <v>10</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157">
         <v>781</v>
       </c>
     </row>
@@ -2096,10 +2095,10 @@
       <c r="A158" s="1">
         <v>44718</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158">
         <v>11</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158">
         <v>733</v>
       </c>
     </row>
@@ -2107,10 +2106,10 @@
       <c r="A159" s="1">
         <v>44719</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159">
         <v>12</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159">
         <v>722</v>
       </c>
     </row>
@@ -2118,10 +2117,10 @@
       <c r="A160" s="1">
         <v>44720</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160">
         <v>13</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160">
         <v>717</v>
       </c>
     </row>
@@ -2129,10 +2128,10 @@
       <c r="A161" s="1">
         <v>44721</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161">
         <v>15</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161">
         <v>731</v>
       </c>
     </row>
@@ -2140,10 +2139,10 @@
       <c r="A162" s="1">
         <v>44722</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162">
         <v>14</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162">
         <v>740</v>
       </c>
     </row>
@@ -2151,10 +2150,10 @@
       <c r="A163" s="1">
         <v>44723</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163">
         <v>14</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163">
         <v>740</v>
       </c>
     </row>
@@ -2162,10 +2161,10 @@
       <c r="A164" s="1">
         <v>44724</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164">
         <v>14</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164">
         <v>740</v>
       </c>
     </row>
@@ -2173,10 +2172,10 @@
       <c r="A165" s="1">
         <v>44725</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165">
         <v>11</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165">
         <v>723</v>
       </c>
     </row>
@@ -2184,10 +2183,10 @@
       <c r="A166" s="1">
         <v>44726</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166">
         <v>11</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166">
         <v>697</v>
       </c>
     </row>
@@ -2195,10 +2194,10 @@
       <c r="A167" s="1">
         <v>44727</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167">
         <v>11</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167">
         <v>740</v>
       </c>
     </row>
@@ -2206,10 +2205,10 @@
       <c r="A168" s="1">
         <v>44728</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168">
         <v>11</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168">
         <v>740</v>
       </c>
     </row>
@@ -2217,10 +2216,10 @@
       <c r="A169" s="1">
         <v>44729</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169">
         <v>10</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169">
         <v>758</v>
       </c>
     </row>
@@ -2228,10 +2227,10 @@
       <c r="A170" s="1">
         <v>44730</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170">
         <v>10</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170">
         <v>758</v>
       </c>
     </row>
@@ -2239,10 +2238,10 @@
       <c r="A171" s="1">
         <v>44731</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171">
         <v>10</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171">
         <v>758</v>
       </c>
     </row>
@@ -2250,10 +2249,10 @@
       <c r="A172" s="1">
         <v>44732</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172">
         <v>15</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172">
         <v>736</v>
       </c>
     </row>
@@ -2261,10 +2260,10 @@
       <c r="A173" s="1">
         <v>44733</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173">
         <v>15</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173">
         <v>736</v>
       </c>
     </row>
@@ -2272,10 +2271,10 @@
       <c r="A174" s="1">
         <v>44734</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174">
         <v>16</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174">
         <v>739</v>
       </c>
     </row>
@@ -2283,10 +2282,10 @@
       <c r="A175" s="1">
         <v>44735</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175">
         <v>18</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175">
         <v>769</v>
       </c>
     </row>
@@ -2294,10 +2293,10 @@
       <c r="A176" s="1">
         <v>44736</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176">
         <v>18</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176">
         <v>769</v>
       </c>
     </row>
@@ -2305,10 +2304,10 @@
       <c r="A177" s="1">
         <v>44737</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177">
         <v>18</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177">
         <v>769</v>
       </c>
     </row>
@@ -2316,10 +2315,10 @@
       <c r="A178" s="1">
         <v>44738</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178">
         <v>18</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178">
         <v>769</v>
       </c>
     </row>
@@ -2327,10 +2326,10 @@
       <c r="A179" s="1">
         <v>44739</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179">
         <v>22</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179">
         <v>766</v>
       </c>
     </row>
@@ -2338,10 +2337,10 @@
       <c r="A180" s="1">
         <v>44740</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180">
         <v>19</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180">
         <v>787</v>
       </c>
     </row>
@@ -2349,10 +2348,10 @@
       <c r="A181" s="1">
         <v>44741</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181">
         <v>19</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181">
         <v>787</v>
       </c>
     </row>
@@ -2360,10 +2359,10 @@
       <c r="A182" s="1">
         <v>44742</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182">
         <v>28</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182">
         <v>785</v>
       </c>
     </row>
@@ -2371,10 +2370,10 @@
       <c r="A183" s="1">
         <v>44743</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183">
         <v>27</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183">
         <v>777</v>
       </c>
     </row>
@@ -2382,10 +2381,10 @@
       <c r="A184" s="1">
         <v>44744</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184">
         <v>27</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184">
         <v>777</v>
       </c>
     </row>
@@ -2393,10 +2392,10 @@
       <c r="A185" s="1">
         <v>44745</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185">
         <v>30</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185">
         <v>775</v>
       </c>
     </row>
@@ -2404,10 +2403,10 @@
       <c r="A186" s="1">
         <v>44746</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186">
         <v>30</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186">
         <v>775</v>
       </c>
     </row>
@@ -2415,10 +2414,10 @@
       <c r="A187" s="1">
         <v>44747</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187">
         <v>30</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187">
         <v>785</v>
       </c>
     </row>
@@ -2426,10 +2425,10 @@
       <c r="A188" s="1">
         <v>44748</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188">
         <v>26</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188">
         <v>783</v>
       </c>
     </row>
@@ -2437,10 +2436,10 @@
       <c r="A189" s="1">
         <v>44749</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189">
         <v>30</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189">
         <v>779</v>
       </c>
     </row>
@@ -2448,10 +2447,10 @@
       <c r="A190" s="1">
         <v>44750</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190">
         <v>33</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190">
         <v>783</v>
       </c>
     </row>
@@ -2459,10 +2458,10 @@
       <c r="A191" s="1">
         <v>44751</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191">
         <v>33</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191">
         <v>783</v>
       </c>
     </row>
@@ -2470,10 +2469,10 @@
       <c r="A192" s="1">
         <v>44752</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192">
         <v>39</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192">
         <v>782</v>
       </c>
     </row>
@@ -2481,10 +2480,10 @@
       <c r="A193" s="1">
         <v>44753</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193">
         <v>39</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193">
         <v>782</v>
       </c>
     </row>
@@ -2492,10 +2491,10 @@
       <c r="A194" s="1">
         <v>44754</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194">
         <v>40</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194">
         <v>762</v>
       </c>
     </row>
@@ -2602,10 +2601,10 @@
       <c r="A204" s="1">
         <v>44764</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204">
         <v>47</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204">
         <v>771</v>
       </c>
     </row>
@@ -2613,10 +2612,10 @@
       <c r="A205" s="1">
         <v>44765</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205">
         <v>47</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205">
         <v>771</v>
       </c>
     </row>
@@ -2624,10 +2623,10 @@
       <c r="A206" s="1">
         <v>44766</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206">
         <v>43</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206">
         <v>761</v>
       </c>
     </row>
@@ -2635,10 +2634,10 @@
       <c r="A207" s="1">
         <v>44767</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207">
         <v>43</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207">
         <v>761</v>
       </c>
     </row>
@@ -2657,10 +2656,10 @@
       <c r="A209" s="1">
         <v>44769</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209">
         <v>38</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209">
         <v>771</v>
       </c>
     </row>
@@ -2668,10 +2667,10 @@
       <c r="A210" s="1">
         <v>44770</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210">
         <v>38</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210">
         <v>771</v>
       </c>
     </row>
@@ -2679,10 +2678,10 @@
       <c r="A211" s="1">
         <v>44771</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211">
         <v>38</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211">
         <v>771</v>
       </c>
     </row>
@@ -2690,10 +2689,10 @@
       <c r="A212" s="1">
         <v>44772</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212">
         <v>38</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212">
         <v>771</v>
       </c>
     </row>
@@ -3075,10 +3074,10 @@
       <c r="A247" s="1">
         <v>44807</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247">
         <v>28</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247">
         <v>738</v>
       </c>
     </row>
@@ -3097,10 +3096,10 @@
       <c r="A249" s="1">
         <v>44809</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249">
         <v>31</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249">
         <v>743</v>
       </c>
     </row>
@@ -3152,10 +3151,10 @@
       <c r="A254" s="1">
         <v>44814</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254">
         <v>31</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254">
         <v>810</v>
       </c>
     </row>
@@ -3262,10 +3261,10 @@
       <c r="A264" s="1">
         <v>44824</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264">
         <v>27</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264">
         <v>783</v>
       </c>
     </row>
@@ -3353,7 +3352,7 @@
       <c r="B272">
         <v>13</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272">
         <v>790</v>
       </c>
     </row>
@@ -3361,10 +3360,10 @@
       <c r="A273" s="1">
         <v>44833</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273">
         <v>13</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273">
         <v>790</v>
       </c>
     </row>
@@ -3372,10 +3371,10 @@
       <c r="A274" s="1">
         <v>44834</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274">
         <v>13</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274">
         <v>790</v>
       </c>
     </row>
@@ -3383,10 +3382,10 @@
       <c r="A275" s="1">
         <v>44835</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275">
         <v>13</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275">
         <v>790</v>
       </c>
     </row>
@@ -3452,7 +3451,7 @@
       <c r="B281">
         <v>11</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281">
         <v>834</v>
       </c>
     </row>
@@ -3463,7 +3462,7 @@
       <c r="B282">
         <v>11</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282">
         <v>834</v>
       </c>
     </row>
@@ -3542,6 +3541,127 @@
       </c>
       <c r="C289">
         <v>794</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B290">
+        <v>16</v>
+      </c>
+      <c r="C290">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B291">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B292">
+        <v>13</v>
+      </c>
+      <c r="C292">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B293">
+        <v>13</v>
+      </c>
+      <c r="C293">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B294">
+        <v>13</v>
+      </c>
+      <c r="C294">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B295">
+        <v>13</v>
+      </c>
+      <c r="C295">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B296">
+        <v>13</v>
+      </c>
+      <c r="C296">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B297">
+        <v>13</v>
+      </c>
+      <c r="C297">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B298">
+        <v>10</v>
+      </c>
+      <c r="C298">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B299">
+        <v>10</v>
+      </c>
+      <c r="C299">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B300">
+        <v>10</v>
+      </c>
+      <c r="C300">
+        <v>813</v>
       </c>
     </row>
   </sheetData>
